--- a/032_StateLegForecast_CAcopy/2018template.xlsx
+++ b/032_StateLegForecast_CAcopy/2018template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>incumbentparty</t>
-  </si>
-  <si>
-    <t>mid_penalty</t>
   </si>
 </sst>
 </file>
@@ -362,15 +359,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,11 +380,8 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -400,11 +394,8 @@
       <c r="D2">
         <v>-1</v>
       </c>
-      <c r="E2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -417,11 +408,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -434,11 +422,8 @@
       <c r="D4">
         <v>-1</v>
       </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -451,11 +436,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -468,11 +450,8 @@
       <c r="D6">
         <v>-1</v>
       </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -485,11 +464,8 @@
       <c r="D7">
         <v>-1</v>
       </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -502,11 +478,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -519,11 +492,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -536,11 +506,8 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -553,11 +520,8 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -570,11 +534,8 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -587,11 +548,8 @@
       <c r="D13">
         <v>-1</v>
       </c>
-      <c r="E13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -604,11 +562,8 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -621,11 +576,8 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -638,11 +590,8 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -655,11 +604,8 @@
       <c r="D17">
         <v>-1</v>
       </c>
-      <c r="E17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -672,11 +618,8 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -689,11 +632,8 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -706,11 +646,8 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -723,11 +660,8 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -740,11 +674,8 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -757,11 +688,8 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -774,11 +702,8 @@
       <c r="D24">
         <v>-1</v>
       </c>
-      <c r="E24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -791,11 +716,8 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -808,11 +730,8 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -825,11 +744,8 @@
       <c r="D27">
         <v>-1</v>
       </c>
-      <c r="E27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -842,11 +758,8 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -859,11 +772,8 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -876,11 +786,8 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -893,11 +800,8 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -910,11 +814,8 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -927,11 +828,8 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -944,11 +842,8 @@
       <c r="D34">
         <v>-1</v>
       </c>
-      <c r="E34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -961,11 +856,8 @@
       <c r="D35">
         <v>-1</v>
       </c>
-      <c r="E35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -978,11 +870,8 @@
       <c r="D36">
         <v>-1</v>
       </c>
-      <c r="E36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -995,11 +884,8 @@
       <c r="D37">
         <v>-1</v>
       </c>
-      <c r="E37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -1012,11 +898,8 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -1029,11 +912,8 @@
       <c r="D39">
         <v>-1</v>
       </c>
-      <c r="E39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -1046,11 +926,8 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -1063,11 +940,8 @@
       <c r="D41">
         <v>-1</v>
       </c>
-      <c r="E41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -1080,11 +954,8 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -1097,11 +968,8 @@
       <c r="D43">
         <v>-1</v>
       </c>
-      <c r="E43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -1114,11 +982,8 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -1131,11 +996,8 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -1148,11 +1010,8 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -1165,11 +1024,8 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -1182,11 +1038,8 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -1199,11 +1052,8 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -1216,11 +1066,8 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -1233,11 +1080,8 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -1250,11 +1094,8 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -1267,11 +1108,8 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -1284,11 +1122,8 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -1301,11 +1136,8 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -1318,11 +1150,8 @@
       <c r="D56">
         <v>-1</v>
       </c>
-      <c r="E56">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -1335,11 +1164,8 @@
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="E57">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -1352,11 +1178,8 @@
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -1369,11 +1192,8 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -1386,11 +1206,8 @@
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -1403,11 +1220,8 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -1420,11 +1234,8 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -1437,11 +1248,8 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -1454,11 +1262,8 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -1471,11 +1276,8 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -1488,11 +1290,8 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -1505,11 +1304,8 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -1522,11 +1318,8 @@
       <c r="D68">
         <v>-1</v>
       </c>
-      <c r="E68">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -1539,11 +1332,8 @@
       <c r="D69">
         <v>-1</v>
       </c>
-      <c r="E69">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -1556,11 +1346,8 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -1573,11 +1360,8 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -1590,11 +1374,8 @@
       <c r="D72">
         <v>-1</v>
       </c>
-      <c r="E72">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -1607,11 +1388,8 @@
       <c r="D73">
         <v>-1</v>
       </c>
-      <c r="E73">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -1624,11 +1402,8 @@
       <c r="D74">
         <v>-1</v>
       </c>
-      <c r="E74">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -1641,11 +1416,8 @@
       <c r="D75">
         <v>-1</v>
       </c>
-      <c r="E75">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2018</v>
       </c>
@@ -1658,11 +1430,8 @@
       <c r="D76">
         <v>-1</v>
       </c>
-      <c r="E76">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -1675,11 +1444,8 @@
       <c r="D77">
         <v>-1</v>
       </c>
-      <c r="E77">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2018</v>
       </c>
@@ -1692,11 +1458,8 @@
       <c r="D78">
         <v>-1</v>
       </c>
-      <c r="E78">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2018</v>
       </c>
@@ -1709,11 +1472,8 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2018</v>
       </c>
@@ -1726,11 +1486,8 @@
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2018</v>
       </c>
@@ -1743,11 +1500,8 @@
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -1760,11 +1514,8 @@
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="E82">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2018</v>
       </c>
@@ -1777,11 +1528,8 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -1794,11 +1542,8 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2018</v>
       </c>
@@ -1811,11 +1556,8 @@
       <c r="D85">
         <v>-1</v>
       </c>
-      <c r="E85">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2018</v>
       </c>
@@ -1828,11 +1570,8 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2018</v>
       </c>
@@ -1845,11 +1584,8 @@
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2018</v>
       </c>
@@ -1862,11 +1598,8 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2018</v>
       </c>
@@ -1879,11 +1612,8 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2018</v>
       </c>
@@ -1896,11 +1626,8 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2018</v>
       </c>
@@ -1914,11 +1641,8 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2018</v>
       </c>
@@ -1932,11 +1656,8 @@
       <c r="D92">
         <v>0</v>
       </c>
-      <c r="E92">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2018</v>
       </c>
@@ -1950,11 +1671,8 @@
       <c r="D93">
         <v>0</v>
       </c>
-      <c r="E93">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2018</v>
       </c>
@@ -1968,11 +1686,8 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2018</v>
       </c>
@@ -1986,11 +1701,8 @@
       <c r="D95">
         <v>-1</v>
       </c>
-      <c r="E95">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2018</v>
       </c>
@@ -2004,11 +1716,8 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2018</v>
       </c>
@@ -2022,11 +1731,8 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2018</v>
       </c>
@@ -2040,11 +1746,8 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -2058,11 +1761,8 @@
       <c r="D99">
         <v>1</v>
       </c>
-      <c r="E99">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2018</v>
       </c>
@@ -2076,11 +1776,8 @@
       <c r="D100">
         <v>0</v>
       </c>
-      <c r="E100">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2018</v>
       </c>
@@ -2094,11 +1791,8 @@
       <c r="D101">
         <v>1</v>
       </c>
-      <c r="E101">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2018</v>
       </c>
@@ -2112,11 +1806,8 @@
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2018</v>
       </c>
@@ -2130,11 +1821,8 @@
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2018</v>
       </c>
@@ -2148,11 +1836,8 @@
       <c r="D104">
         <v>0</v>
       </c>
-      <c r="E104">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2018</v>
       </c>
@@ -2166,11 +1851,8 @@
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2018</v>
       </c>
@@ -2184,11 +1866,8 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2018</v>
       </c>
@@ -2202,11 +1881,8 @@
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2018</v>
       </c>
@@ -2220,11 +1896,8 @@
       <c r="D108">
         <v>0</v>
       </c>
-      <c r="E108">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2018</v>
       </c>
@@ -2238,11 +1911,8 @@
       <c r="D109">
         <v>-1</v>
       </c>
-      <c r="E109">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2018</v>
       </c>
@@ -2256,11 +1926,8 @@
       <c r="D110">
         <v>0</v>
       </c>
-      <c r="E110">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2018</v>
       </c>
@@ -2274,11 +1941,8 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="E111">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2018</v>
       </c>
@@ -2292,11 +1956,8 @@
       <c r="D112">
         <v>0</v>
       </c>
-      <c r="E112">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2018</v>
       </c>
@@ -2310,11 +1971,8 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2018</v>
       </c>
@@ -2328,11 +1986,8 @@
       <c r="D114">
         <v>0</v>
       </c>
-      <c r="E114">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2018</v>
       </c>
@@ -2346,11 +2001,8 @@
       <c r="D115">
         <v>-1</v>
       </c>
-      <c r="E115">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2018</v>
       </c>
@@ -2364,11 +2016,8 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2018</v>
       </c>
@@ -2382,11 +2031,8 @@
       <c r="D117">
         <v>-1</v>
       </c>
-      <c r="E117">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2018</v>
       </c>
@@ -2400,11 +2046,8 @@
       <c r="D118">
         <v>0</v>
       </c>
-      <c r="E118">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2018</v>
       </c>
@@ -2418,11 +2061,8 @@
       <c r="D119">
         <v>0</v>
       </c>
-      <c r="E119">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2018</v>
       </c>
@@ -2436,11 +2076,8 @@
       <c r="D120">
         <v>0</v>
       </c>
-      <c r="E120">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2018</v>
       </c>
@@ -2453,9 +2090,6 @@
       </c>
       <c r="D121">
         <v>1</v>
-      </c>
-      <c r="E121">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/032_StateLegForecast_CAcopy/2018template.xlsx
+++ b/032_StateLegForecast_CAcopy/2018template.xlsx
@@ -35,9 +35,6 @@
     <t>chamber</t>
   </si>
   <si>
-    <t>District</t>
-  </si>
-  <si>
     <t>SEN</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>incumbentparty</t>
+  </si>
+  <si>
+    <t>chamdist</t>
   </si>
 </sst>
 </file>
@@ -361,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -375,10 +375,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -386,10 +386,10 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -400,10 +400,11 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <f>C2+1</f>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -414,10 +415,11 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <f t="shared" ref="C4:C67" si="0">C3+1</f>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -428,10 +430,11 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
         <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -442,10 +445,11 @@
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -456,10 +460,11 @@
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -470,10 +475,11 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -484,10 +490,11 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -498,10 +505,11 @@
         <v>2018</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -512,10 +520,11 @@
         <v>2018</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -526,10 +535,11 @@
         <v>2018</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -540,10 +550,11 @@
         <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -554,10 +565,11 @@
         <v>2018</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -568,10 +580,11 @@
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -582,10 +595,11 @@
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -596,10 +610,11 @@
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -610,10 +625,11 @@
         <v>2018</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -624,10 +640,11 @@
         <v>2018</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -638,10 +655,11 @@
         <v>2018</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -652,10 +670,11 @@
         <v>2018</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -666,10 +685,11 @@
         <v>2018</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -680,10 +700,11 @@
         <v>2018</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -694,10 +715,11 @@
         <v>2018</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -708,10 +730,11 @@
         <v>2018</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -722,10 +745,11 @@
         <v>2018</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -736,10 +760,11 @@
         <v>2018</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -750,10 +775,11 @@
         <v>2018</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -764,10 +790,11 @@
         <v>2018</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -778,10 +805,11 @@
         <v>2018</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -792,10 +820,11 @@
         <v>2018</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -806,10 +835,11 @@
         <v>2018</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -820,10 +850,11 @@
         <v>2018</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -834,10 +865,11 @@
         <v>2018</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="D34">
         <v>-1</v>
@@ -848,10 +880,11 @@
         <v>2018</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="D35">
         <v>-1</v>
@@ -862,10 +895,11 @@
         <v>2018</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="D36">
         <v>-1</v>
@@ -876,10 +910,11 @@
         <v>2018</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -890,10 +925,11 @@
         <v>2018</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -904,10 +940,11 @@
         <v>2018</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="D39">
         <v>-1</v>
@@ -918,10 +955,11 @@
         <v>2018</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -932,10 +970,11 @@
         <v>2018</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -946,10 +985,11 @@
         <v>2018</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -960,10 +1000,11 @@
         <v>2018</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -974,10 +1015,11 @@
         <v>2018</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -988,10 +1030,11 @@
         <v>2018</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1002,10 +1045,11 @@
         <v>2018</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1016,10 +1060,11 @@
         <v>2018</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1030,10 +1075,11 @@
         <v>2018</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1044,10 +1090,11 @@
         <v>2018</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1058,10 +1105,11 @@
         <v>2018</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1072,10 +1120,11 @@
         <v>2018</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1086,10 +1135,11 @@
         <v>2018</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1100,10 +1150,11 @@
         <v>2018</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1114,10 +1165,11 @@
         <v>2018</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1128,10 +1180,11 @@
         <v>2018</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1142,10 +1195,11 @@
         <v>2018</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="D56">
         <v>-1</v>
@@ -1156,10 +1210,11 @@
         <v>2018</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1170,10 +1225,11 @@
         <v>2018</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1184,10 +1240,11 @@
         <v>2018</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1198,10 +1255,11 @@
         <v>2018</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1212,10 +1270,11 @@
         <v>2018</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1226,10 +1285,11 @@
         <v>2018</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1240,10 +1300,11 @@
         <v>2018</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1254,10 +1315,11 @@
         <v>2018</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1268,10 +1330,11 @@
         <v>2018</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1282,10 +1345,11 @@
         <v>2018</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1296,10 +1360,11 @@
         <v>2018</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1310,10 +1375,11 @@
         <v>2018</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>-1</v>
+        <f t="shared" ref="C68:C121" si="1">C67+1</f>
+        <v>67</v>
       </c>
       <c r="D68">
         <v>-1</v>
@@ -1324,10 +1390,11 @@
         <v>2018</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="D69">
         <v>-1</v>
@@ -1338,10 +1405,11 @@
         <v>2018</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1352,10 +1420,11 @@
         <v>2018</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1366,10 +1435,11 @@
         <v>2018</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="D72">
         <v>-1</v>
@@ -1380,10 +1450,11 @@
         <v>2018</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="D73">
         <v>-1</v>
@@ -1394,10 +1465,11 @@
         <v>2018</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="D74">
         <v>-1</v>
@@ -1408,10 +1480,11 @@
         <v>2018</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="D75">
         <v>-1</v>
@@ -1422,10 +1495,11 @@
         <v>2018</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="D76">
         <v>-1</v>
@@ -1436,10 +1510,11 @@
         <v>2018</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="D77">
         <v>-1</v>
@@ -1450,10 +1525,11 @@
         <v>2018</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="D78">
         <v>-1</v>
@@ -1464,10 +1540,11 @@
         <v>2018</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1478,10 +1555,11 @@
         <v>2018</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1492,10 +1570,11 @@
         <v>2018</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1506,10 +1585,11 @@
         <v>2018</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1520,10 +1600,11 @@
         <v>2018</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1534,10 +1615,11 @@
         <v>2018</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1548,10 +1630,11 @@
         <v>2018</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="D85">
         <v>-1</v>
@@ -1562,10 +1645,11 @@
         <v>2018</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1576,10 +1660,11 @@
         <v>2018</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1590,10 +1675,11 @@
         <v>2018</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1604,10 +1690,11 @@
         <v>2018</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1618,10 +1705,11 @@
         <v>2018</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>89</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -1632,11 +1720,11 @@
         <v>2018</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <f>C90+1</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1647,11 +1735,11 @@
         <v>2018</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92">
-        <f>C91+1</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>91</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -1662,11 +1750,11 @@
         <v>2018</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:D93" si="0">C92+1</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -1677,11 +1765,11 @@
         <v>2018</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:D94" si="1">C93+1</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -1692,11 +1780,11 @@
         <v>2018</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:D95" si="2">C94+1</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="D95">
         <v>-1</v>
@@ -1707,11 +1795,11 @@
         <v>2018</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:D96" si="3">C95+1</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -1722,11 +1810,11 @@
         <v>2018</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <f t="shared" ref="C97:D97" si="4">C96+1</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -1737,11 +1825,11 @@
         <v>2018</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98">
-        <f t="shared" ref="C98:D98" si="5">C97+1</f>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>97</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -1752,11 +1840,11 @@
         <v>2018</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:D99" si="6">C98+1</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -1767,11 +1855,11 @@
         <v>2018</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <f t="shared" ref="C100:D100" si="7">C99+1</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -1782,11 +1870,11 @@
         <v>2018</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:D101" si="8">C100+1</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -1797,11 +1885,11 @@
         <v>2018</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:D102" si="9">C101+1</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>101</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -1812,11 +1900,11 @@
         <v>2018</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:D103" si="10">C102+1</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>102</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -1827,11 +1915,11 @@
         <v>2018</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <f t="shared" ref="C104:D104" si="11">C103+1</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>103</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -1842,11 +1930,11 @@
         <v>2018</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <f t="shared" ref="C105:D105" si="12">C104+1</f>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>104</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -1857,11 +1945,11 @@
         <v>2018</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <f t="shared" ref="C106:D106" si="13">C105+1</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>105</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -1872,11 +1960,11 @@
         <v>2018</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <f t="shared" ref="C107:D107" si="14">C106+1</f>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>106</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -1887,11 +1975,11 @@
         <v>2018</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <f t="shared" ref="C108:D108" si="15">C107+1</f>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>107</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -1902,11 +1990,11 @@
         <v>2018</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:D109" si="16">C108+1</f>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="D109">
         <v>-1</v>
@@ -1917,11 +2005,11 @@
         <v>2018</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:D110" si="17">C109+1</f>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>109</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -1932,11 +2020,11 @@
         <v>2018</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <f t="shared" ref="C111:D111" si="18">C110+1</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -1947,11 +2035,11 @@
         <v>2018</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <f t="shared" ref="C112:D112" si="19">C111+1</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>111</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -1962,11 +2050,11 @@
         <v>2018</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113">
-        <f>C112+1</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>112</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -1977,11 +2065,11 @@
         <v>2018</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <f>C113+1</f>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>113</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -1992,11 +2080,11 @@
         <v>2018</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:D115" si="20">C114+1</f>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>114</v>
       </c>
       <c r="D115">
         <v>-1</v>
@@ -2007,11 +2095,11 @@
         <v>2018</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116">
-        <f t="shared" ref="C116:D116" si="21">C115+1</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>115</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2022,11 +2110,11 @@
         <v>2018</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <f t="shared" ref="C117:D117" si="22">C116+1</f>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>116</v>
       </c>
       <c r="D117">
         <v>-1</v>
@@ -2037,11 +2125,11 @@
         <v>2018</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <f t="shared" ref="C118:D118" si="23">C117+1</f>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>117</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2052,11 +2140,11 @@
         <v>2018</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <f t="shared" ref="C119:D119" si="24">C118+1</f>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>118</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2067,11 +2155,11 @@
         <v>2018</v>
       </c>
       <c r="B120" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120">
-        <f>C119+1</f>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>119</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2082,11 +2170,11 @@
         <v>2018</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <f>C120+1</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="D121">
         <v>1</v>

--- a/032_StateLegForecast_CAcopy/2018template.xlsx
+++ b/032_StateLegForecast_CAcopy/2018template.xlsx
@@ -361,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1697,7 @@
         <v>88</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1967,7 +1967,7 @@
         <v>106</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">

--- a/032_StateLegForecast_CAcopy/2018template.xlsx
+++ b/032_StateLegForecast_CAcopy/2018template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="7">
   <si>
     <t>year</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>chamdist</t>
+  </si>
+  <si>
+    <t>Legparty</t>
   </si>
 </sst>
 </file>
@@ -359,15 +362,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,8 +383,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -394,8 +400,11 @@
       <c r="D2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -409,8 +418,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -424,8 +436,11 @@
       <c r="D4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -439,8 +454,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -454,8 +472,11 @@
       <c r="D6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -469,8 +490,11 @@
       <c r="D7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -484,8 +508,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -499,8 +526,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -514,8 +544,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -529,8 +562,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -544,8 +580,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -559,8 +598,11 @@
       <c r="D13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -574,8 +616,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -589,8 +634,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -604,8 +652,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -619,8 +670,11 @@
       <c r="D17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -634,8 +688,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -649,8 +706,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -664,8 +724,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -679,8 +742,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -694,8 +760,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -709,8 +778,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -724,8 +796,11 @@
       <c r="D24">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -739,8 +814,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -754,8 +832,11 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -769,8 +850,11 @@
       <c r="D27">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -784,8 +868,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -799,8 +886,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -814,8 +904,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -829,8 +922,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -844,8 +940,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -859,8 +958,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -874,8 +976,11 @@
       <c r="D34">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -889,8 +994,11 @@
       <c r="D35">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -904,8 +1012,11 @@
       <c r="D36">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -919,8 +1030,11 @@
       <c r="D37">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -934,8 +1048,11 @@
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -949,8 +1066,11 @@
       <c r="D39">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -964,8 +1084,11 @@
       <c r="D40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -979,8 +1102,11 @@
       <c r="D41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -994,8 +1120,11 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -1009,8 +1138,11 @@
       <c r="D43">
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -1024,8 +1156,11 @@
       <c r="D44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -1039,8 +1174,11 @@
       <c r="D45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -1054,8 +1192,11 @@
       <c r="D46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -1069,8 +1210,11 @@
       <c r="D47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -1084,8 +1228,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -1099,8 +1246,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -1114,8 +1264,11 @@
       <c r="D50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -1129,8 +1282,11 @@
       <c r="D51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -1144,8 +1300,11 @@
       <c r="D52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -1159,8 +1318,11 @@
       <c r="D53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -1174,8 +1336,11 @@
       <c r="D54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -1189,8 +1354,11 @@
       <c r="D55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -1204,8 +1372,11 @@
       <c r="D56">
         <v>-1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -1219,8 +1390,11 @@
       <c r="D57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -1234,8 +1408,11 @@
       <c r="D58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -1249,8 +1426,11 @@
       <c r="D59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -1264,8 +1444,11 @@
       <c r="D60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -1279,8 +1462,11 @@
       <c r="D61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -1294,8 +1480,11 @@
       <c r="D62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -1309,8 +1498,11 @@
       <c r="D63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -1324,8 +1516,11 @@
       <c r="D64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -1339,8 +1534,11 @@
       <c r="D65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -1354,8 +1552,11 @@
       <c r="D66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -1369,8 +1570,11 @@
       <c r="D67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -1384,8 +1588,11 @@
       <c r="D68">
         <v>-1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -1399,8 +1606,11 @@
       <c r="D69">
         <v>-1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -1414,8 +1624,11 @@
       <c r="D70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -1429,8 +1642,11 @@
       <c r="D71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -1444,8 +1660,11 @@
       <c r="D72">
         <v>-1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -1459,8 +1678,11 @@
       <c r="D73">
         <v>-1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -1474,8 +1696,11 @@
       <c r="D74">
         <v>-1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -1489,8 +1714,11 @@
       <c r="D75">
         <v>-1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2018</v>
       </c>
@@ -1504,8 +1732,11 @@
       <c r="D76">
         <v>-1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -1519,8 +1750,11 @@
       <c r="D77">
         <v>-1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2018</v>
       </c>
@@ -1534,8 +1768,11 @@
       <c r="D78">
         <v>-1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2018</v>
       </c>
@@ -1549,8 +1786,11 @@
       <c r="D79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2018</v>
       </c>
@@ -1564,8 +1804,11 @@
       <c r="D80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2018</v>
       </c>
@@ -1579,8 +1822,11 @@
       <c r="D81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -1594,8 +1840,11 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2018</v>
       </c>
@@ -1609,8 +1858,11 @@
       <c r="D83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -1624,8 +1876,11 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2018</v>
       </c>
@@ -1639,8 +1894,11 @@
       <c r="D85">
         <v>-1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2018</v>
       </c>
@@ -1654,8 +1912,11 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2018</v>
       </c>
@@ -1669,8 +1930,11 @@
       <c r="D87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2018</v>
       </c>
@@ -1684,8 +1948,11 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2018</v>
       </c>
@@ -1699,8 +1966,11 @@
       <c r="D89">
         <v>-1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2018</v>
       </c>
@@ -1714,8 +1984,11 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2018</v>
       </c>
@@ -1729,8 +2002,11 @@
       <c r="D91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2018</v>
       </c>
@@ -1744,8 +2020,11 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2018</v>
       </c>
@@ -1759,8 +2038,11 @@
       <c r="D93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2018</v>
       </c>
@@ -1774,8 +2056,11 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2018</v>
       </c>
@@ -1789,8 +2074,11 @@
       <c r="D95">
         <v>-1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2018</v>
       </c>
@@ -1804,8 +2092,11 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2018</v>
       </c>
@@ -1819,8 +2110,11 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2018</v>
       </c>
@@ -1834,8 +2128,11 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -1849,8 +2146,11 @@
       <c r="D99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2018</v>
       </c>
@@ -1864,8 +2164,11 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2018</v>
       </c>
@@ -1879,8 +2182,11 @@
       <c r="D101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2018</v>
       </c>
@@ -1894,8 +2200,11 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2018</v>
       </c>
@@ -1909,8 +2218,11 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2018</v>
       </c>
@@ -1924,8 +2236,11 @@
       <c r="D104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2018</v>
       </c>
@@ -1939,8 +2254,11 @@
       <c r="D105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2018</v>
       </c>
@@ -1954,8 +2272,11 @@
       <c r="D106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2018</v>
       </c>
@@ -1969,8 +2290,11 @@
       <c r="D107">
         <v>-1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2018</v>
       </c>
@@ -1984,8 +2308,11 @@
       <c r="D108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2018</v>
       </c>
@@ -1999,8 +2326,11 @@
       <c r="D109">
         <v>-1</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2018</v>
       </c>
@@ -2014,8 +2344,11 @@
       <c r="D110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2018</v>
       </c>
@@ -2029,8 +2362,11 @@
       <c r="D111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2018</v>
       </c>
@@ -2044,8 +2380,11 @@
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2018</v>
       </c>
@@ -2059,8 +2398,11 @@
       <c r="D113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2018</v>
       </c>
@@ -2074,8 +2416,11 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2018</v>
       </c>
@@ -2089,8 +2434,11 @@
       <c r="D115">
         <v>-1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2018</v>
       </c>
@@ -2104,8 +2452,11 @@
       <c r="D116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2018</v>
       </c>
@@ -2119,8 +2470,11 @@
       <c r="D117">
         <v>-1</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2018</v>
       </c>
@@ -2134,8 +2488,11 @@
       <c r="D118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2018</v>
       </c>
@@ -2149,8 +2506,11 @@
       <c r="D119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2018</v>
       </c>
@@ -2164,8 +2524,11 @@
       <c r="D120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2018</v>
       </c>
@@ -2177,6 +2540,9 @@
         <v>120</v>
       </c>
       <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
         <v>1</v>
       </c>
     </row>
